--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3648.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3648.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.468628369045877</v>
+        <v>1.196438908576965</v>
       </c>
       <c r="B1">
-        <v>1.543218355952733</v>
+        <v>2.194975852966309</v>
       </c>
       <c r="C1">
-        <v>1.628714358656834</v>
+        <v>1.999509692192078</v>
       </c>
       <c r="D1">
-        <v>2.1848586414212</v>
+        <v>1.530771493911743</v>
       </c>
       <c r="E1">
-        <v>3.826812606483037</v>
+        <v>0.8582099676132202</v>
       </c>
     </row>
   </sheetData>
